--- a/test/input/FullValuesOnly.xlsx
+++ b/test/input/FullValuesOnly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="29" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="4" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Input Value</t>
   </si>
@@ -105,6 +105,12 @@
     <t>Short Title</t>
   </si>
   <si>
+    <t>Functional Match 1</t>
+  </si>
+  <si>
+    <t>Functional Match 2</t>
+  </si>
+  <si>
     <t>Founder</t>
   </si>
   <si>
@@ -175,6 +181,15 @@
   </si>
   <si>
     <t>ExTi1</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
   <si>
     <t>lala</t>
@@ -211,6 +226,7 @@
   <fonts count="7">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="12"/>
@@ -232,18 +248,21 @@
     </font>
     <font>
       <name val="Gill Sans MT"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -311,7 +330,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
@@ -329,7 +348,6 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -412,24 +430,20 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="F2" xSplit="5" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="F1" activeCellId="0" pane="topRight" sqref="F1"/>
-      <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="C22" activeCellId="0" pane="bottomRight" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5843137254902"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -441,43 +455,43 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="T3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="T4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
       <c r="T5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
       <c r="T6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="T7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -487,19 +501,19 @@
       <c r="C8" s="6"/>
       <c r="T8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="T9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="T10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -509,7 +523,7 @@
       <c r="C11" s="6"/>
       <c r="T11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -519,7 +533,7 @@
       <c r="C12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -529,7 +543,7 @@
       <c r="C13" s="6"/>
       <c r="T13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -539,12 +553,12 @@
       <c r="C14" s="6"/>
       <c r="T14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
       <c r="T15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
@@ -553,7 +567,7 @@
       </c>
       <c r="T16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>17</v>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="T17" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
         <v>18</v>
       </c>
@@ -571,7 +585,7 @@
       </c>
       <c r="T18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
         <v>19</v>
       </c>
@@ -597,30 +611,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="E4" xSplit="4" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="E1" activeCellId="0" pane="topRight" sqref="E1"/>
-      <selection activeCell="A4" activeCellId="0" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="B8" activeCellId="0" pane="bottomRight" sqref="B8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.36470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.8705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.86666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.90196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -628,20 +638,20 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -651,36 +661,38 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -695,8 +707,10 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -728,16 +742,16 @@
         <v>34</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="O3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>37</v>
@@ -748,27 +762,27 @@
       <c r="R3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="T3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="U3" s="11"/>
       <c r="V3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>45</v>
@@ -782,504 +796,540 @@
       <c r="AD3" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="4">
+      <c r="AE3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD4" s="13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
+      <c r="A6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
+      <c r="A7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
+      <c r="A8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
+      <c r="A10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="13" t="n">
+      <c r="B10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="13" t="n">
+      <c r="J10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AA4" s="14" t="n">
+      <c r="AC10" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AD10" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AE10" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AF10" s="13" t="n">
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="1" r="5">
-      <c r="A5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="1" r="6">
-      <c r="A6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="1" r="7">
-      <c r="A7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="1" r="8">
-      <c r="A8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="1" r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="10">
-      <c r="A10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="13" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
+      <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC10" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AD10" s="13" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="11">
-      <c r="A11" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="12">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="13">
+        <v>60</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="14">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AD2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AB1:AF2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test/input/FullValuesOnly.xlsx
+++ b/test/input/FullValuesOnly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="4" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="206" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Input Value</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Perf Cash</t>
   </si>
   <si>
-    <t>Owned Shares</t>
+    <t>Owned shares</t>
   </si>
   <si>
     <t>Vested Options</t>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>ExTi2</t>
+  </si>
+  <si>
+    <t>ExecutiveName3</t>
+  </si>
+  <si>
+    <t>ExecutiveTitle3</t>
+  </si>
+  <si>
+    <t>ExTi3</t>
   </si>
 </sst>
 </file>
@@ -347,10 +356,10 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -435,12 +444,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -611,22 +620,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="V9" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="AF28" activeCellId="0" pane="topLeft" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.6"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4627450980392"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.90196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9529411764706"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
@@ -888,7 +897,7 @@
       <c r="AB4" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AC4" s="14" t="n">
+      <c r="AC4" s="13" t="n">
         <v>200</v>
       </c>
       <c r="AD4" s="13" t="n">
@@ -897,7 +906,7 @@
       <c r="AE4" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="0" t="n">
         <v>500</v>
       </c>
     </row>
@@ -905,185 +914,185 @@
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1164,7 +1173,7 @@
       <c r="AB10" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AC10" s="14" t="n">
+      <c r="AC10" s="13" t="n">
         <v>200</v>
       </c>
       <c r="AD10" s="13" t="n">
@@ -1173,7 +1182,7 @@
       <c r="AE10" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AF10" s="13" t="n">
+      <c r="AF10" s="0" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1181,145 +1190,390 @@
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="15">
+      <c r="AD15" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="16">
+      <c r="A16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="17">
+      <c r="A17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="18">
+      <c r="A18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="19">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/test/input/FullValuesOnly.xlsx
+++ b/test/input/FullValuesOnly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="177" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="177" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>Input Value</t>
   </si>
@@ -139,16 +139,25 @@
     <t>Short Title</t>
   </si>
   <si>
-    <t>Functional Match</t>
-  </si>
-  <si>
-    <t>Functional Match 1</t>
-  </si>
-  <si>
-    <t>Functional Match 2</t>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>bod</t>
   </si>
   <si>
     <t>Founder</t>
+  </si>
+  <si>
+    <t>Transition Period</t>
   </si>
   <si>
     <t>Base Salary</t>
@@ -394,11 +403,11 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
@@ -407,7 +416,7 @@
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
@@ -415,17 +424,17 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
@@ -435,7 +444,7 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
       <top/>
@@ -443,12 +452,12 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -457,18 +466,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -546,9 +555,9 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
@@ -629,17 +638,17 @@
   </sheetPr>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
       <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7882352941176"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.556862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1386,7 +1395,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
@@ -1415,23 +1424,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="G16" activeCellId="0" pane="topLeft" sqref="G16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="F16" activeCellId="0" pane="topLeft" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.0117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.9921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.0313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.556862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.0117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1444,21 +1453,21 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="I1" s="31"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="L1" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="S1" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="T1" s="31"/>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
@@ -1466,13 +1475,16 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
       <c r="Z1" s="31"/>
-      <c r="AA1" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
       <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
+      <c r="AD1" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="31"/>
@@ -1482,23 +1494,23 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="L2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
       <c r="T2" s="31"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
@@ -1511,6 +1523,9 @@
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="32" t="s">
@@ -1550,19 +1565,19 @@
         <v>48</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>51</v>
       </c>
       <c r="S3" s="32" t="s">
         <v>52</v>
@@ -1580,19 +1595,19 @@
         <v>56</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AB3" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="AB3" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="AC3" s="32" t="s">
         <v>60</v>
@@ -1603,36 +1618,42 @@
       <c r="AE3" s="32" t="s">
         <v>62</v>
       </c>
+      <c r="AF3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="34" t="n">
+        <v>69</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="34" t="n">
+      <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="34" t="n">
@@ -1675,222 +1696,243 @@
         <v>1</v>
       </c>
       <c r="AA4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="AB4" s="34" t="n">
+      <c r="AE4" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="AC4" s="34" t="n">
+      <c r="AF4" s="34" t="n">
         <v>300</v>
       </c>
-      <c r="AD4" s="34" t="n">
+      <c r="AG4" s="34" t="n">
         <v>400</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="34" t="n">
+        <v>76</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="J10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" s="34" t="n">
         <v>1</v>
       </c>
@@ -1934,192 +1976,210 @@
         <v>1</v>
       </c>
       <c r="AA10" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="AB10" s="34" t="n">
+      <c r="AE10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="AC10" s="34" t="n">
+      <c r="AF10" s="34" t="n">
         <v>300</v>
       </c>
-      <c r="AD10" s="34" t="n">
+      <c r="AG10" s="34" t="n">
         <v>400</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="AC15" s="37"/>
+      <c r="AF15" s="35"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="16">
       <c r="A16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="J16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="34" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" s="34" t="n">
         <v>1</v>
       </c>
@@ -2163,170 +2223,191 @@
         <v>1</v>
       </c>
       <c r="AA16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="AB16" s="34" t="n">
+      <c r="AE16" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="AC16" s="34" t="n">
+      <c r="AF16" s="34" t="n">
         <v>300</v>
       </c>
-      <c r="AD16" s="34" t="n">
+      <c r="AG16" s="34" t="n">
         <v>400</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="17">
       <c r="A17" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="18">
       <c r="A18" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="19">
       <c r="A19" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
       <c r="A20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="AA1:AE2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="AD1:AH2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:AC2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test/input/FullValuesOnly.xlsx
+++ b/test/input/FullValuesOnly.xlsx
@@ -812,7 +812,6 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
@@ -826,6 +825,7 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
@@ -974,19 +974,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="D54" activeCellId="0" pane="topLeft" sqref="D54"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1044,666 +1044,650 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="T6" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="T7" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="T8" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="T10" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
       <c r="T11" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
       <c r="T12" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>41060</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
       <c r="T13" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>41162</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="23"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="A14" s="24"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="26"/>
       <c r="T14" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
+      <c r="A15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="T15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="T16" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="T17" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="T18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="26"/>
       <c r="T19" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="T20" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="24"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
       <c r="T21" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22">
       <c r="A22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23">
+      <c r="A23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="23"/>
-      <c r="T23" s="7"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24">
-      <c r="A24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25">
-      <c r="A25" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>38353</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
-      <c r="A28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>38353</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="28">
+      <c r="A28" s="24"/>
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
-      <c r="A29" s="22"/>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>41162</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="30">
-      <c r="A30" s="24"/>
-      <c r="B30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
+      <c r="A30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>41234</v>
+      </c>
+      <c r="D30" s="22"/>
       <c r="E30" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
-      <c r="A31" s="24"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="32">
       <c r="A32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>41234</v>
-      </c>
-      <c r="D32" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
       <c r="A33" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
-      <c r="A34" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
       <c r="A35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
-      <c r="A36" s="24"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
       <c r="A37" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
-      <c r="A38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39">
-      <c r="A39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40">
-      <c r="A40" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>40909</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
-      <c r="A43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>40909</v>
-      </c>
-      <c r="D43" s="9"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>40792</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="43">
+      <c r="A43" s="24"/>
+      <c r="B43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
-      <c r="A44" s="22"/>
-      <c r="B44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>40792</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="45">
-      <c r="A45" s="24"/>
-      <c r="B45" s="8" t="s">
-        <v>12</v>
+      <c r="A44" s="24"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
+      <c r="A45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
-      <c r="A46" s="24"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="26"/>
+      <c r="A46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="47">
       <c r="A47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
       <c r="A48" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
-      <c r="A49" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
       <c r="A50" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
-      <c r="A51" s="24"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
       <c r="A52" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
-      <c r="A53" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="23"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54">
-      <c r="A54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="23"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55">
-      <c r="A55" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="56">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.55" outlineLevel="0" r="58">
-      <c r="A58" s="18" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.55" outlineLevel="0" r="56">
+      <c r="A56" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C56" s="4" t="n">
         <v>41275</v>
       </c>
-      <c r="D58" s="9"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="57">
+      <c r="A57" s="21"/>
+      <c r="B57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>40424</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="58">
+      <c r="A58" s="24"/>
+      <c r="B58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="59">
-      <c r="A59" s="22"/>
-      <c r="B59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>40424</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="60">
-      <c r="A60" s="24"/>
-      <c r="B60" s="8" t="s">
-        <v>12</v>
+      <c r="A60" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="61">
-      <c r="A61" s="24"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="62">
       <c r="A62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="63">
       <c r="A63" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="64">
-      <c r="A64" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="23"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="65">
       <c r="A65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="66">
-      <c r="A66" s="24"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="67">
       <c r="A67" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="68">
-      <c r="A68" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="69">
-      <c r="A69" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="70">
-      <c r="A70" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B17:B20 B32:B35 B47:B50 B62:B65" type="list">
-      <formula1>DOC_SRC!$I$1:$I$21</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15:B18 B30:B33 B45:B48 B60:B63" type="list">
+      <formula1>DOC_SRC!$I$1:$I$19</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1765,140 +1749,140 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.243137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.2509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5882352941176"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1058823529412"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6078431372549"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.2666666666667"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="47" min="47" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="48" min="48" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="52" min="52" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="55" min="55" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1098039215686"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="72" min="72" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="77" min="77" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="80" min="80" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="82" min="82" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="85" min="85" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="87" min="87" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="90" min="90" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="92" min="92" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="97" min="97" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="22.9921568627451"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="102" min="102" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.1725490196078"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="107" min="107" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4745098039216"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.4352941176471"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.8901960784314"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.0235294117647"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6549019607843"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0901960784314"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.643137254902"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4862745098039"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.443137254902"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.9098039215686"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.043137254902"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6705882352941"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0980392156863"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.73725490196078"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1">
@@ -6635,140 +6619,140 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.243137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.2509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5882352941176"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1058823529412"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6078431372549"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.2666666666667"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="47" min="47" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="48" min="48" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="52" min="52" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="55" min="55" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1098039215686"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="72" min="72" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="77" min="77" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="80" min="80" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="82" min="82" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="85" min="85" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="87" min="87" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="90" min="90" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="92" min="92" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="97" min="97" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="22.9921568627451"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="102" min="102" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.1725490196078"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="107" min="107" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4745098039216"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.4352941176471"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.8901960784314"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.0235294117647"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6549019607843"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0901960784314"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.643137254902"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4862745098039"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.443137254902"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.9098039215686"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.043137254902"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6705882352941"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0980392156863"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.73725490196078"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1">
@@ -11505,140 +11489,140 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.243137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.2509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5882352941176"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.1058823529412"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6078431372549"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.2666666666667"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="47" min="47" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="48" min="48" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="52" min="52" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="55" min="55" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="15.1098039215686"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="5.52549019607843"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9294117647059"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="72" min="72" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.9333333333333"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="77" min="77" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="80" min="80" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="82" min="82" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="85" min="85" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="87" min="87" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.06274509803922"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.07058823529412"/>
     <col collapsed="false" hidden="false" max="90" min="90" style="0" width="5.35294117647059"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5882352941176"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="11.5960784313726"/>
     <col collapsed="false" hidden="false" max="92" min="92" style="0" width="5.2156862745098"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.2352941176471"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7647058823529"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7686274509804"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="10.243137254902"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="13.7725490196078"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.7764705882353"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="97" min="97" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="22.9921568627451"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="102" min="102" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1137254901961"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="22.1725490196078"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="17.1254901960784"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="17.3019607843137"/>
     <col collapsed="false" hidden="false" max="107" min="107" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4745098039216"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.7490196078431"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4549019607843"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.4352941176471"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.643137254902"/>
-    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.8901960784314"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.0235294117647"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6549019607843"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0901960784314"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.643137254902"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="19.4862745098039"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="12.756862745098"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="119" min="118" style="0" width="17.3019607843137"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="16.4627450980392"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="11.7529411764706"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="15.6235294117647"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="16.2941176470588"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="18.4823529411765"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="14.443137254902"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="13.6078431372549"/>
+    <col collapsed="false" hidden="false" max="138" min="127" style="0" width="18.6549019607843"/>
+    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="30.9098039215686"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="26.043137254902"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="20.6705882352941"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0980392156863"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="7.73725490196078"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="10.4117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="147" style="0" width="18.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="1">
